--- a/02_MasterWifoMannheim/99_Backup/Course149.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course149.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159FC50B161CFFB97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E745E6-41D8-430D-AF66-065B59D1E1EE}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 661 Consumer Behavior</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The course examines the key aspects of consumer behavior. It defines consumer behavior as the acquisition, consumption, and disposition of goods, services, time, and ideas by (human) decision making units. explored. Starting from the Elaboration Likelihood peripheral route of information processing and discuss topics such as decision making and store choice (both high and low involvement).</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students understand the key aspects of consumer behavior with specific application to marketing communication and retailing. They will be able to apply and adapt their knowledge to develop strategies and tactics for both areas.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (45 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dr. h.c. mult. Christian Homburg / Prof. Dr. Wayne D. Hoyer</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>MKT 530, MKT 531</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 661 Consumer Behavior</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The course examines the key aspects of consumer behavior. It defines consumer behavior as the acquisition, consumption, and disposition of goods, services, time, and ideas by (human) decision making units. explored. Starting from the Elaboration Likelihood peripheral route of information processing and discuss topics such as decision making and store choice (both high and low involvement).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students understand the key aspects of consumer behavior with specific application to marketing communication and retailing. They will be able to apply and adapt their knowledge to develop strategies and tactics for both areas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MKT 530, MKT 531</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (45 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Dr. h.c. mult. Christian Homburg / Prof. Dr. Wayne D. Hoyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
